--- a/tc_00.xlsx
+++ b/tc_00.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Khang\Documents\Github\Scrap_data_oxford_anki\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Khang\Documents\Github\Oxford_anki\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93BE713A-D75C-4CF2-ADB7-8D0639C183B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D142FCB-D5C5-4A64-BD8F-E684EA06D418}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6612" yWindow="0" windowWidth="12072" windowHeight="12360" xr2:uid="{4C613214-7FAE-4863-9D48-22FBA8317108}"/>
+    <workbookView xWindow="2472" yWindow="408" windowWidth="11604" windowHeight="11544" xr2:uid="{4C613214-7FAE-4863-9D48-22FBA8317108}"/>
   </bookViews>
   <sheets>
     <sheet name="Moby Dick (AmazonClassics Editi" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="226">
   <si>
     <t>fowl</t>
   </si>
@@ -443,6 +443,261 @@
   </si>
   <si>
     <t>&lt;p class="context"&gt;What do you see?â€”Posted like silent &lt;b&gt;sentinels&lt;/b&gt; all around the town, stand thousands upon thousands of mortal men fixed in ocean reveries. &lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>handful</t>
+  </si>
+  <si>
+    <t>&lt;p class="context"&gt;Why did the poor poet of Tennessee, upon suddenly receiving two &lt;b&gt;handfuls&lt;/b&gt; of silver, deliberate whether to buy him a coat, which he sadly needed, or invest his money in a pedestrian trip to Rockaway Beach? &lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>pedestrian</t>
+  </si>
+  <si>
+    <t>&lt;p class="context"&gt;Why did the poor poet of Tennessee, upon suddenly receiving two handfuls of silver, deliberate whether to buy him a coat, which he sadly needed, or invest his money in a &lt;b&gt;pedestrian&lt;/b&gt; trip to Rockaway Beach? &lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>robust</t>
+  </si>
+  <si>
+    <t>&lt;p class="context"&gt;Why is almost every &lt;b&gt;robust&lt;/b&gt; healthy boy with a &lt;b&gt;robust&lt;/b&gt; healthy soul in him, at some time or other crazy to go to sea? &lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>voyage</t>
+  </si>
+  <si>
+    <t>&lt;p class="context"&gt;Why upon your first &lt;b&gt;voyage&lt;/b&gt; as a passenger, did you yourself feel such a mystical vibration, when first told that you and your ship were now out of sight of land? &lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>holy</t>
+  </si>
+  <si>
+    <t>&lt;p class="context"&gt;Why did the old Persians hold the sea &lt;b&gt;holy&lt;/b&gt;? &lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>deity</t>
+  </si>
+  <si>
+    <t>&lt;p class="context"&gt;Why did the Greeks give it a separate &lt;b&gt;deity&lt;/b&gt;, and own brother of Jove? &lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>torment</t>
+  </si>
+  <si>
+    <t>&lt;p class="context"&gt;And still deeper the meaning of that story of Narcissus, who because he could not grasp the &lt;b&gt;tormenting&lt;/b&gt;, mild image he saw in the fountain, plunged into it and was drowned. &lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>mild</t>
+  </si>
+  <si>
+    <t>&lt;p class="context"&gt;And still deeper the meaning of that story of Narcissus, who because he could not grasp the tormenting, &lt;b&gt;mild&lt;/b&gt; image he saw in the fountain, plunged into it and was drowned. &lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>plunge</t>
+  </si>
+  <si>
+    <t>&lt;p class="context"&gt;And still deeper the meaning of that story of Narcissus, who because he could not grasp the tormenting, mild image he saw in the fountain, &lt;b&gt;plunged&lt;/b&gt; into it and was drowned. &lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>hazy</t>
+  </si>
+  <si>
+    <t>&lt;p class="context"&gt;Now, when I say that I am in the habit of going to sea whenever I begin to grow &lt;b&gt;hazy&lt;/b&gt; about the eyes, and begin to be over conscious of my lungs, I do not mean to have it inferred that I ever go to sea as a passenger. &lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>conscious</t>
+  </si>
+  <si>
+    <t>&lt;p class="context"&gt;Now, when I say that I am in the habit of going to sea whenever I begin to grow hazy about the eyes, and begin to be over &lt;b&gt;conscious&lt;/b&gt; of my lungs, I do not mean to have it inferred that I ever go to sea as a passenger. &lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>infer</t>
+  </si>
+  <si>
+    <t>&lt;p class="context"&gt;Now, when I say that I am in the habit of going to sea whenever I begin to grow hazy about the eyes, and begin to be over conscious of my lungs, I do not mean to have it &lt;b&gt;inferred&lt;/b&gt; that I ever go to sea as a passenger. &lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>purse</t>
+  </si>
+  <si>
+    <t>&lt;p class="context"&gt;For to go as a passenger you must needs have a &lt;b&gt;purse&lt;/b&gt;, and a &lt;b&gt;purse&lt;/b&gt; is but a rag unless you have something in it. &lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>rag</t>
+  </si>
+  <si>
+    <t>&lt;p class="context"&gt;For to go as a passenger you must needs have a purse, and a purse is but a &lt;b&gt;rag&lt;/b&gt; unless you have something in it. &lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>respectable</t>
+  </si>
+  <si>
+    <t>&lt;p class="context"&gt;For my part, I abominate all honorable &lt;b&gt;respectable&lt;/b&gt; toils, trials, and tribulations of every kind whatsoever. &lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>honorable</t>
+  </si>
+  <si>
+    <t>&lt;p class="context"&gt;For my part, I abominate all &lt;b&gt;honorable&lt;/b&gt; respectable toils, trials, and tribulations of every kind whatsoever. &lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>toil</t>
+  </si>
+  <si>
+    <t>&lt;p class="context"&gt;For my part, I abominate all honorable respectable &lt;b&gt;toils&lt;/b&gt;, trials, and tribulations of every kind whatsoever. &lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>trials</t>
+  </si>
+  <si>
+    <t>&lt;p class="context"&gt;For my part, I abominate all honorable respectable toils, &lt;b&gt;trials&lt;/b&gt;, and tribulations of every kind whatsoever. &lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>whatsoever</t>
+  </si>
+  <si>
+    <t>&lt;p class="context"&gt;For my part, I abominate all honorable respectable toils, trials, and tribulations of every kind &lt;b&gt;whatsoever&lt;/b&gt;. &lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p class="context"&gt;And as for going as cook,â€”though I confess there is considerable glory in that, a cook being a sort of officer on ship-boardâ€”yet, somehow, I never fancied broiling &lt;b&gt;fowls&lt;/b&gt;;â€”though once broiled, judiciously buttered, and judgmatically salted and peppered, there is no one who will speak more respectfully, not to say reverentially, of a broiled fowl than I will. &lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>butter</t>
+  </si>
+  <si>
+    <t>&lt;p class="context"&gt;And as for going as cook,â€”though I confess there is considerable glory in that, a cook being a sort of officer on ship-boardâ€”yet, somehow, I never fancied broiling fowls;â€”though once broiled, judiciously &lt;b&gt;buttered&lt;/b&gt;, and judgmatically salted and peppered, there is no one who will speak more respectfully, not to say reverentially, of a broiled fowl than I will. &lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p class="context"&gt;Some leaning against the spiles; some seated upon the pier-heads; some looking over the bulwarks of ships from China; some high &lt;b&gt;aloft&lt;/b&gt; in the rigging, as if striving to get a still better seaward peep. &lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>spleen</t>
+  </si>
+  <si>
+    <t>&lt;p class="context"&gt;It is a way I have of driving off the &lt;b&gt;spleen&lt;/b&gt; and regulating the circulation. &lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>regulate</t>
+  </si>
+  <si>
+    <t>&lt;p class="context"&gt;It is a way I have of driving off the spleen and &lt;b&gt;regulating&lt;/b&gt; the circulation. &lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>methodically</t>
+  </si>
+  <si>
+    <t>&lt;p class="context"&gt;Whenever I find myself growing grim about the mouth; whenever it is a damp, drizzly November in my soul; whenever I find myself involuntarily pausing before coffin warehouses, and bringing up the rear of every funeral I meet; and especially whenever my hypos get such an upper hand of me, that it requires a strong moral principle to prevent me from deliberately stepping into the street, and &lt;b&gt;methodically&lt;/b&gt; knocking peopleâ€™s hats offâ€”then, I account it high time to get to sea as soon as I can. &lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>plaster</t>
+  </si>
+  <si>
+    <t>&lt;p class="context"&gt;But these are all landsmen; of week days pent up in lath and &lt;b&gt;plaster&lt;/b&gt;â€”tied to counters, nailed to benches, clinched to desks. &lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>virtue</t>
+  </si>
+  <si>
+    <t>&lt;p class="context"&gt;Tell me, does the magnetic &lt;b&gt;virtue&lt;/b&gt; of the needles of the compasses of all those ships attract them thither? &lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>mole</t>
+  </si>
+  <si>
+    <t>&lt;p class="context"&gt;Its extreme downtown is the battery, where that noble &lt;b&gt;mole&lt;/b&gt; is washed by waves, and cooled by breezes, which a few hours previous were out of sight of land. &lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>substitute</t>
+  </si>
+  <si>
+    <t>&lt;p class="context"&gt;This is my &lt;b&gt;substitute&lt;/b&gt; for pistol and ball. &lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>wharf</t>
+  </si>
+  <si>
+    <t>&lt;p class="context"&gt;There now is your insular city of the Manhattoes, belted round by &lt;b&gt;wharves&lt;/b&gt; as Indian isles by coral reefsâ€”commerce surrounds it with her surf. &lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>thence</t>
+  </si>
+  <si>
+    <t>&lt;p class="context"&gt;Go from Corlears Hook to Coenties Slip, and from &lt;b&gt;thence&lt;/b&gt;, by Whitehall, northward. &lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>deliberately</t>
+  </si>
+  <si>
+    <t>&lt;p class="context"&gt;Whenever I find myself growing grim about the mouth; whenever it is a damp, drizzly November in my soul; whenever I find myself involuntarily pausing before coffin warehouses, and bringing up the rear of every funeral I meet; and especially whenever my hypos get such an upper hand of me, that it requires a strong moral principle to prevent me from &lt;b&gt;deliberately&lt;/b&gt; stepping into the street, and methodically knocking peopleâ€™s hats offâ€”then, I account it high time to get to sea as soon as I can. &lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>rear</t>
+  </si>
+  <si>
+    <t>&lt;p class="context"&gt;Whenever I find myself growing grim about the mouth; whenever it is a damp, drizzly November in my soul; whenever I find myself involuntarily pausing before coffin warehouses, and bringing up the &lt;b&gt;rear&lt;/b&gt; of every funeral I meet; and especially whenever my hypos get such an upper hand of me, that it requires a strong moral principle to prevent me from deliberately stepping into the street, and methodically knocking peopleâ€™s hats offâ€”then, I account it high time to get to sea as soon as I can. &lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>pace</t>
+  </si>
+  <si>
+    <t>&lt;p class="context"&gt;here come more crowds, &lt;b&gt;pacing&lt;/b&gt; straight for the water, and seemingly bound for a dive. &lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p class="context"&gt;Nothing will content them but the extremest limit of the land; loitering under the &lt;b&gt;shady&lt;/b&gt; lee of yonder warehouses will not suffice. &lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>rigging</t>
+  </si>
+  <si>
+    <t>&lt;p class="context"&gt;Some leaning against the spiles; some seated upon the pier-heads; some looking over the bulwarks of ships from China; some high aloft in the &lt;b&gt;rigging&lt;/b&gt;, as if striving to get a still better seaward peep. &lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>isle</t>
+  </si>
+  <si>
+    <t>&lt;p class="context"&gt;There now is your insular city of the Manhattoes, belted round by wharves as Indian &lt;b&gt;isles&lt;/b&gt; by coral reefsâ€”commerce surrounds it with her surf. &lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>suffice</t>
+  </si>
+  <si>
+    <t>&lt;p class="context"&gt;Nothing will content them but the extremest limit of the land; loitering under the shady lee of yonder warehouses will not &lt;b&gt;suffice&lt;/b&gt;. &lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>commerce</t>
+  </si>
+  <si>
+    <t>&lt;p class="context"&gt;There now is your insular city of the Manhattoes, belted round by wharves as Indian isles by coral reefsâ€”&lt;b&gt;commerce&lt;/b&gt; surrounds it with her surf. &lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>pause</t>
+  </si>
+  <si>
+    <t>&lt;p class="context"&gt;Whenever I find myself growing grim about the mouth; whenever it is a damp, drizzly November in my soul; whenever I find myself involuntarily &lt;b&gt;pausing&lt;/b&gt; before coffin warehouses, and bringing up the rear of every funeral I meet; and especially whenever my hypos get such an upper hand of me, that it requires a strong moral principle to prevent me from deliberately stepping into the street, and methodically knocking peopleâ€™s hats offâ€”then, I account it high time to get to sea as soon as I can. &lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>nigh</t>
+  </si>
+  <si>
+    <t>&lt;p class="context"&gt;They must get just as &lt;b&gt;nigh&lt;/b&gt; the water as they possibly can without falling in. &lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>involuntary</t>
+  </si>
+  <si>
+    <t>&lt;p class="context"&gt;Whenever I find myself growing grim about the mouth; whenever it is a damp, drizzly November in my soul; whenever I find myself &lt;b&gt;involuntarily&lt;/b&gt; pausing before coffin warehouses, and bringing up the rear of every funeral I meet; and especially whenever my hypos get such an upper hand of me, that it requires a strong moral principle to prevent me from deliberately stepping into the street, and methodically knocking peopleâ€™s hats offâ€”then, I account it high time to get to sea as soon as I can. &lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>lath</t>
+  </si>
+  <si>
+    <t>&lt;p class="context"&gt;But these are all landsmen; of week days pent up in &lt;b&gt;lath&lt;/b&gt; and plasterâ€”tied to counters, nailed to benches, clinched to desks. &lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>noble</t>
+  </si>
+  <si>
+    <t>&lt;p class="context"&gt;Its extreme downtown is the battery, where that &lt;b&gt;noble&lt;/b&gt; mole is washed by waves, and cooled by breezes, which a few hours previous were out of sight of land. &lt;/p&gt;</t>
   </si>
 </sst>
 </file>
@@ -1303,10 +1558,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDA09FA0-9CF9-41F0-AA69-428AFC34E3F9}">
-  <dimension ref="A1:B71"/>
+  <dimension ref="A1:B115"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
+      <selection activeCell="J111" sqref="J111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1316,569 +1571,921 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>3</v>
+        <v>141</v>
       </c>
       <c r="B1" t="s">
-        <v>4</v>
+        <v>142</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>143</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>144</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>145</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>146</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>147</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>148</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>11</v>
+        <v>149</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>150</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>151</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>152</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>15</v>
+        <v>153</v>
       </c>
       <c r="B7" t="s">
-        <v>16</v>
+        <v>154</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>17</v>
+        <v>155</v>
       </c>
       <c r="B8" t="s">
-        <v>18</v>
+        <v>156</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>19</v>
+        <v>157</v>
       </c>
       <c r="B9" t="s">
-        <v>20</v>
+        <v>158</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>21</v>
+        <v>159</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>160</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>161</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>162</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>25</v>
+        <v>163</v>
       </c>
       <c r="B12" t="s">
-        <v>26</v>
+        <v>164</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>27</v>
+        <v>165</v>
       </c>
       <c r="B13" t="s">
-        <v>28</v>
+        <v>166</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>29</v>
+        <v>167</v>
       </c>
       <c r="B14" t="s">
-        <v>30</v>
+        <v>168</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>31</v>
+        <v>169</v>
       </c>
       <c r="B15" t="s">
-        <v>32</v>
+        <v>170</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>33</v>
+        <v>171</v>
       </c>
       <c r="B16" t="s">
-        <v>34</v>
+        <v>172</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>35</v>
+        <v>173</v>
       </c>
       <c r="B17" t="s">
-        <v>36</v>
+        <v>174</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>37</v>
+        <v>175</v>
       </c>
       <c r="B18" t="s">
-        <v>38</v>
+        <v>176</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>39</v>
+        <v>177</v>
       </c>
       <c r="B19" t="s">
-        <v>40</v>
+        <v>178</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>41</v>
+        <v>0</v>
       </c>
       <c r="B20" t="s">
-        <v>42</v>
+        <v>179</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>43</v>
+        <v>180</v>
       </c>
       <c r="B21" t="s">
-        <v>44</v>
+        <v>181</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>45</v>
+        <v>1</v>
       </c>
       <c r="B22" t="s">
-        <v>46</v>
+        <v>182</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>47</v>
+        <v>183</v>
       </c>
       <c r="B23" t="s">
-        <v>48</v>
+        <v>184</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>49</v>
+        <v>185</v>
       </c>
       <c r="B24" t="s">
-        <v>50</v>
+        <v>186</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>51</v>
+        <v>187</v>
       </c>
       <c r="B25" t="s">
-        <v>52</v>
+        <v>188</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>2</v>
+        <v>189</v>
       </c>
       <c r="B26" t="s">
-        <v>53</v>
+        <v>190</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>54</v>
+        <v>191</v>
       </c>
       <c r="B27" t="s">
-        <v>55</v>
+        <v>192</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>56</v>
+        <v>193</v>
       </c>
       <c r="B28" t="s">
-        <v>57</v>
+        <v>194</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>58</v>
+        <v>195</v>
       </c>
       <c r="B29" t="s">
-        <v>59</v>
+        <v>196</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>60</v>
+        <v>197</v>
       </c>
       <c r="B30" t="s">
-        <v>61</v>
+        <v>198</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>62</v>
+        <v>199</v>
       </c>
       <c r="B31" t="s">
-        <v>63</v>
+        <v>200</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>64</v>
+        <v>201</v>
       </c>
       <c r="B32" t="s">
-        <v>65</v>
+        <v>202</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>66</v>
+        <v>203</v>
       </c>
       <c r="B33" t="s">
-        <v>67</v>
+        <v>204</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>68</v>
+        <v>205</v>
       </c>
       <c r="B34" t="s">
-        <v>69</v>
+        <v>206</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B35" t="s">
-        <v>70</v>
+        <v>207</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>71</v>
+        <v>208</v>
       </c>
       <c r="B36" t="s">
-        <v>72</v>
+        <v>209</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>73</v>
+        <v>210</v>
       </c>
       <c r="B37" t="s">
-        <v>74</v>
+        <v>211</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>75</v>
+        <v>212</v>
       </c>
       <c r="B38" t="s">
-        <v>76</v>
+        <v>213</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>77</v>
+        <v>214</v>
       </c>
       <c r="B39" t="s">
-        <v>78</v>
+        <v>215</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>79</v>
+        <v>216</v>
       </c>
       <c r="B40" t="s">
-        <v>80</v>
+        <v>217</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>81</v>
+        <v>218</v>
       </c>
       <c r="B41" t="s">
-        <v>82</v>
+        <v>219</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>83</v>
+        <v>220</v>
       </c>
       <c r="B42" t="s">
-        <v>84</v>
+        <v>221</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>85</v>
+        <v>222</v>
       </c>
       <c r="B43" t="s">
-        <v>86</v>
+        <v>223</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>87</v>
+        <v>224</v>
       </c>
       <c r="B44" t="s">
-        <v>88</v>
+        <v>225</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>89</v>
+        <v>3</v>
       </c>
       <c r="B45" t="s">
-        <v>90</v>
+        <v>4</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>91</v>
+        <v>5</v>
       </c>
       <c r="B46" t="s">
-        <v>92</v>
+        <v>6</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>93</v>
+        <v>7</v>
       </c>
       <c r="B47" t="s">
-        <v>94</v>
+        <v>8</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>95</v>
+        <v>9</v>
       </c>
       <c r="B48" t="s">
-        <v>96</v>
+        <v>10</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="B49" t="s">
-        <v>97</v>
+        <v>12</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>98</v>
+        <v>13</v>
       </c>
       <c r="B50" t="s">
-        <v>99</v>
+        <v>14</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>100</v>
+        <v>15</v>
       </c>
       <c r="B51" t="s">
-        <v>101</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>102</v>
+        <v>17</v>
       </c>
       <c r="B52" t="s">
-        <v>103</v>
+        <v>18</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>104</v>
+        <v>19</v>
       </c>
       <c r="B53" t="s">
-        <v>105</v>
+        <v>20</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>106</v>
+        <v>21</v>
       </c>
       <c r="B54" t="s">
-        <v>107</v>
+        <v>22</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>108</v>
+        <v>23</v>
       </c>
       <c r="B55" t="s">
-        <v>109</v>
+        <v>24</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>110</v>
+        <v>25</v>
       </c>
       <c r="B56" t="s">
-        <v>111</v>
+        <v>26</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>112</v>
+        <v>27</v>
       </c>
       <c r="B57" t="s">
-        <v>113</v>
+        <v>28</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>114</v>
+        <v>29</v>
       </c>
       <c r="B58" t="s">
-        <v>115</v>
+        <v>30</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>116</v>
+        <v>31</v>
       </c>
       <c r="B59" t="s">
-        <v>117</v>
+        <v>32</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>118</v>
+        <v>33</v>
       </c>
       <c r="B60" t="s">
-        <v>119</v>
+        <v>34</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>120</v>
+        <v>35</v>
       </c>
       <c r="B61" t="s">
-        <v>121</v>
+        <v>36</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>122</v>
+        <v>37</v>
       </c>
       <c r="B62" t="s">
-        <v>123</v>
+        <v>38</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>124</v>
+        <v>39</v>
       </c>
       <c r="B63" t="s">
-        <v>125</v>
+        <v>40</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>126</v>
+        <v>41</v>
       </c>
       <c r="B64" t="s">
-        <v>127</v>
+        <v>42</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>128</v>
+        <v>43</v>
       </c>
       <c r="B65" t="s">
-        <v>129</v>
+        <v>44</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>130</v>
+        <v>45</v>
       </c>
       <c r="B66" t="s">
-        <v>131</v>
+        <v>46</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>132</v>
+        <v>47</v>
       </c>
       <c r="B67" t="s">
-        <v>133</v>
+        <v>48</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>134</v>
+        <v>49</v>
       </c>
       <c r="B68" t="s">
-        <v>135</v>
+        <v>50</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>124</v>
+        <v>51</v>
       </c>
       <c r="B69" t="s">
-        <v>136</v>
+        <v>52</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>137</v>
+        <v>2</v>
       </c>
       <c r="B70" t="s">
-        <v>138</v>
+        <v>53</v>
       </c>
     </row>
     <row r="71" spans="1:2" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
+        <v>54</v>
+      </c>
+      <c r="B71" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>56</v>
+      </c>
+      <c r="B72" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>58</v>
+      </c>
+      <c r="B73" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>60</v>
+      </c>
+      <c r="B74" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>62</v>
+      </c>
+      <c r="B75" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>64</v>
+      </c>
+      <c r="B76" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>66</v>
+      </c>
+      <c r="B77" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>68</v>
+      </c>
+      <c r="B78" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>0</v>
+      </c>
+      <c r="B79" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
+        <v>71</v>
+      </c>
+      <c r="B80" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
+        <v>73</v>
+      </c>
+      <c r="B81" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
+        <v>75</v>
+      </c>
+      <c r="B82" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
+        <v>77</v>
+      </c>
+      <c r="B83" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
+        <v>79</v>
+      </c>
+      <c r="B84" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
+        <v>81</v>
+      </c>
+      <c r="B85" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
+        <v>83</v>
+      </c>
+      <c r="B86" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
+        <v>85</v>
+      </c>
+      <c r="B87" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
+        <v>87</v>
+      </c>
+      <c r="B88" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
+        <v>89</v>
+      </c>
+      <c r="B89" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A90" t="s">
+        <v>91</v>
+      </c>
+      <c r="B90" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A91" t="s">
+        <v>93</v>
+      </c>
+      <c r="B91" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A92" t="s">
+        <v>95</v>
+      </c>
+      <c r="B92" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A93" t="s">
+        <v>1</v>
+      </c>
+      <c r="B93" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A94" t="s">
+        <v>98</v>
+      </c>
+      <c r="B94" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A95" t="s">
+        <v>100</v>
+      </c>
+      <c r="B95" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A96" t="s">
+        <v>102</v>
+      </c>
+      <c r="B96" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A97" t="s">
+        <v>104</v>
+      </c>
+      <c r="B97" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A98" t="s">
+        <v>106</v>
+      </c>
+      <c r="B98" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A99" t="s">
+        <v>108</v>
+      </c>
+      <c r="B99" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A100" t="s">
+        <v>110</v>
+      </c>
+      <c r="B100" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A101" t="s">
+        <v>112</v>
+      </c>
+      <c r="B101" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A102" t="s">
+        <v>114</v>
+      </c>
+      <c r="B102" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A103" t="s">
+        <v>116</v>
+      </c>
+      <c r="B103" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A104" t="s">
+        <v>118</v>
+      </c>
+      <c r="B104" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A105" t="s">
+        <v>120</v>
+      </c>
+      <c r="B105" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A106" t="s">
+        <v>122</v>
+      </c>
+      <c r="B106" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A107" t="s">
+        <v>124</v>
+      </c>
+      <c r="B107" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A108" t="s">
+        <v>126</v>
+      </c>
+      <c r="B108" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A109" t="s">
+        <v>128</v>
+      </c>
+      <c r="B109" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A110" t="s">
+        <v>130</v>
+      </c>
+      <c r="B110" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A111" t="s">
+        <v>132</v>
+      </c>
+      <c r="B111" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A112" t="s">
+        <v>134</v>
+      </c>
+      <c r="B112" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A113" t="s">
+        <v>124</v>
+      </c>
+      <c r="B113" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A114" t="s">
+        <v>137</v>
+      </c>
+      <c r="B114" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A115" t="s">
         <v>139</v>
       </c>
-      <c r="B71" t="s">
+      <c r="B115" t="s">
         <v>140</v>
       </c>
     </row>
